--- a/artfynd/A 7247-2021.xlsx
+++ b/artfynd/A 7247-2021.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>81447718</v>
+        <v>81449270</v>
       </c>
       <c r="B2" t="n">
-        <v>89392</v>
+        <v>90082</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,34 +696,32 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1202</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Ullticka</t>
-        </is>
+        <v>757</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Hapalopilus aurantiacus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Rostk.) Bondartsev &amp; Singer</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
           <t>Harbacken, V, Srm</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>581883.9816994623</v>
+        <v>581880.1778726063</v>
       </c>
       <c r="R2" t="n">
-        <v>6558852.283487952</v>
+        <v>6559077.377833399</v>
       </c>
       <c r="S2" t="n">
         <v>5</v>
@@ -750,7 +748,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2018-10-04</t>
+          <t>2018-10-05</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -760,7 +758,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2018-10-04</t>
+          <t>2018-10-05</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -768,12 +766,18 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
       <c r="AD2" t="b">
         <v>0</v>
       </c>
       <c r="AE2" t="b">
         <v>0</v>
       </c>
+      <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="b">
         <v>0</v>
       </c>
@@ -796,10 +800,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>81447417</v>
+        <v>81447416</v>
       </c>
       <c r="B3" t="n">
-        <v>78098</v>
+        <v>89776</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -812,21 +816,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6453</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Vedskivlav</t>
-        </is>
+        <v>6040162</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Leptoporus erubescens</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Fr.) Bourdot &amp; Galzin</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -836,10 +835,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>581908.5393505754</v>
+        <v>581880.1778726063</v>
       </c>
       <c r="R3" t="n">
-        <v>6558976.941240109</v>
+        <v>6559077.377833399</v>
       </c>
       <c r="S3" t="n">
         <v>5</v>
@@ -912,10 +911,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>81447420</v>
+        <v>81447718</v>
       </c>
       <c r="B4" t="n">
-        <v>89794</v>
+        <v>89392</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -924,25 +923,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5321</v>
+        <v>1202</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Barkticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Rigidoporus corticola</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Fr.) Pouzar</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -952,10 +951,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>582184.5575369275</v>
+        <v>581883.9816994623</v>
       </c>
       <c r="R4" t="n">
-        <v>6558949.024255753</v>
+        <v>6558852.283487952</v>
       </c>
       <c r="S4" t="n">
         <v>5</v>
@@ -977,12 +976,12 @@
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>Floda</t>
+          <t>Sköldinge</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2018-10-05</t>
+          <t>2018-10-04</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -992,7 +991,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2018-10-05</t>
+          <t>2018-10-04</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1028,10 +1027,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>81447719</v>
+        <v>81447417</v>
       </c>
       <c r="B5" t="n">
-        <v>90676</v>
+        <v>78098</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1044,21 +1043,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5966</v>
+        <v>6453</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1068,10 +1067,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>581862.0392222989</v>
+        <v>581908.5393505754</v>
       </c>
       <c r="R5" t="n">
-        <v>6558845.144295719</v>
+        <v>6558976.941240109</v>
       </c>
       <c r="S5" t="n">
         <v>5</v>
@@ -1098,7 +1097,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2018-10-04</t>
+          <t>2018-10-05</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1108,7 +1107,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2018-10-04</t>
+          <t>2018-10-05</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1144,10 +1143,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>81447414</v>
+        <v>81447420</v>
       </c>
       <c r="B6" t="n">
-        <v>90676</v>
+        <v>89794</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1156,25 +1155,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5966</v>
+        <v>5321</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Barkticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Rigidoporus corticola</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1184,10 +1183,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>581965.5323911189</v>
+        <v>582184.5575369275</v>
       </c>
       <c r="R6" t="n">
-        <v>6558883.272502526</v>
+        <v>6558949.024255753</v>
       </c>
       <c r="S6" t="n">
         <v>5</v>
@@ -1209,7 +1208,7 @@
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>Sköldinge</t>
+          <t>Floda</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
@@ -1260,10 +1259,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>81449270</v>
+        <v>81447719</v>
       </c>
       <c r="B7" t="n">
-        <v>90082</v>
+        <v>90676</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1276,32 +1275,34 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>757</v>
+        <v>5966</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Motaggsvamp</t>
+        </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hapalopilus aurantiacus</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Rostk.) Bondartsev &amp; Singer</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
           <t>Harbacken, V, Srm</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>581880.1778726063</v>
+        <v>581862.0392222989</v>
       </c>
       <c r="R7" t="n">
-        <v>6559077.377833399</v>
+        <v>6558845.144295719</v>
       </c>
       <c r="S7" t="n">
         <v>5</v>
@@ -1328,7 +1329,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2018-10-05</t>
+          <t>2018-10-04</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -1338,7 +1339,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2018-10-05</t>
+          <t>2018-10-04</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
@@ -1346,18 +1347,12 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
       <c r="AD7" t="b">
         <v>0</v>
       </c>
       <c r="AE7" t="b">
         <v>0</v>
       </c>
-      <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="b">
         <v>0</v>
       </c>
@@ -1380,10 +1375,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>81447416</v>
+        <v>81447414</v>
       </c>
       <c r="B8" t="n">
-        <v>89776</v>
+        <v>90676</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1396,16 +1391,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6040162</v>
+        <v>5966</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Motaggsvamp</t>
+        </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Leptoporus erubescens</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Fr.) Bourdot &amp; Galzin</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1415,10 +1415,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>581880.1778726063</v>
+        <v>581965.5323911189</v>
       </c>
       <c r="R8" t="n">
-        <v>6559077.377833399</v>
+        <v>6558883.272502526</v>
       </c>
       <c r="S8" t="n">
         <v>5</v>

--- a/artfynd/A 7247-2021.xlsx
+++ b/artfynd/A 7247-2021.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>81449270</v>
+        <v>81447718</v>
       </c>
       <c r="B2" t="n">
-        <v>90082</v>
+        <v>89392</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,32 +696,34 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>757</v>
+        <v>1202</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Ullticka</t>
+        </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Hapalopilus aurantiacus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Rostk.) Bondartsev &amp; Singer</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
           <t>Harbacken, V, Srm</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>581880.1778726063</v>
+        <v>581883.9816994623</v>
       </c>
       <c r="R2" t="n">
-        <v>6559077.377833399</v>
+        <v>6558852.283487952</v>
       </c>
       <c r="S2" t="n">
         <v>5</v>
@@ -748,7 +750,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2018-10-05</t>
+          <t>2018-10-04</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -758,7 +760,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2018-10-05</t>
+          <t>2018-10-04</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -766,18 +768,12 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
       <c r="AD2" t="b">
         <v>0</v>
       </c>
       <c r="AE2" t="b">
         <v>0</v>
       </c>
-      <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="b">
         <v>0</v>
       </c>
@@ -800,10 +796,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>81447416</v>
+        <v>81447417</v>
       </c>
       <c r="B3" t="n">
-        <v>89776</v>
+        <v>78098</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -816,16 +812,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6040162</v>
+        <v>6453</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Vedskivlav</t>
+        </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Leptoporus erubescens</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Fr.) Bourdot &amp; Galzin</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -835,10 +836,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>581880.1778726063</v>
+        <v>581908.5393505754</v>
       </c>
       <c r="R3" t="n">
-        <v>6559077.377833399</v>
+        <v>6558976.941240109</v>
       </c>
       <c r="S3" t="n">
         <v>5</v>
@@ -911,10 +912,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>81447718</v>
+        <v>81447420</v>
       </c>
       <c r="B4" t="n">
-        <v>89392</v>
+        <v>89794</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -923,25 +924,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1202</v>
+        <v>5321</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Barkticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Rigidoporus corticola</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -951,10 +952,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>581883.9816994623</v>
+        <v>582184.5575369275</v>
       </c>
       <c r="R4" t="n">
-        <v>6558852.283487952</v>
+        <v>6558949.024255753</v>
       </c>
       <c r="S4" t="n">
         <v>5</v>
@@ -976,12 +977,12 @@
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>Sköldinge</t>
+          <t>Floda</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2018-10-04</t>
+          <t>2018-10-05</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -991,7 +992,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2018-10-04</t>
+          <t>2018-10-05</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1027,10 +1028,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>81447417</v>
+        <v>81447719</v>
       </c>
       <c r="B5" t="n">
-        <v>78098</v>
+        <v>90676</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1043,21 +1044,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6453</v>
+        <v>5966</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1067,10 +1068,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>581908.5393505754</v>
+        <v>581862.0392222989</v>
       </c>
       <c r="R5" t="n">
-        <v>6558976.941240109</v>
+        <v>6558845.144295719</v>
       </c>
       <c r="S5" t="n">
         <v>5</v>
@@ -1097,7 +1098,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2018-10-05</t>
+          <t>2018-10-04</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1107,7 +1108,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2018-10-05</t>
+          <t>2018-10-04</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1143,10 +1144,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>81447420</v>
+        <v>81447414</v>
       </c>
       <c r="B6" t="n">
-        <v>89794</v>
+        <v>90676</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1155,25 +1156,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5321</v>
+        <v>5966</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Barkticka</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Rigidoporus corticola</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Fr.) Pouzar</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1183,10 +1184,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>582184.5575369275</v>
+        <v>581965.5323911189</v>
       </c>
       <c r="R6" t="n">
-        <v>6558949.024255753</v>
+        <v>6558883.272502526</v>
       </c>
       <c r="S6" t="n">
         <v>5</v>
@@ -1208,7 +1209,7 @@
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>Floda</t>
+          <t>Sköldinge</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
@@ -1259,10 +1260,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>81447719</v>
+        <v>81449270</v>
       </c>
       <c r="B7" t="n">
-        <v>90676</v>
+        <v>90082</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1275,34 +1276,32 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5966</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Motaggsvamp</t>
-        </is>
+        <v>757</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Hapalopilus aurantiacus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(Rostk.) Bondartsev &amp; Singer</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
           <t>Harbacken, V, Srm</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>581862.0392222989</v>
+        <v>581880.1778726063</v>
       </c>
       <c r="R7" t="n">
-        <v>6558845.144295719</v>
+        <v>6559077.377833399</v>
       </c>
       <c r="S7" t="n">
         <v>5</v>
@@ -1329,7 +1328,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2018-10-04</t>
+          <t>2018-10-05</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -1339,7 +1338,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2018-10-04</t>
+          <t>2018-10-05</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
@@ -1347,12 +1346,18 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
       <c r="AD7" t="b">
         <v>0</v>
       </c>
       <c r="AE7" t="b">
         <v>0</v>
       </c>
+      <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="b">
         <v>0</v>
       </c>
@@ -1375,10 +1380,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>81447414</v>
+        <v>81447416</v>
       </c>
       <c r="B8" t="n">
-        <v>90676</v>
+        <v>89776</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1391,21 +1396,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5966</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Motaggsvamp</t>
-        </is>
+        <v>6040162</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Leptoporus erubescens</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(Fr.) Bourdot &amp; Galzin</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1415,10 +1415,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>581965.5323911189</v>
+        <v>581880.1778726063</v>
       </c>
       <c r="R8" t="n">
-        <v>6558883.272502526</v>
+        <v>6559077.377833399</v>
       </c>
       <c r="S8" t="n">
         <v>5</v>
